--- a/01_Documentos/02_Mapa de Procesos 14 niveles/GESTOR DE ARCHIVOS 14 N.xlsx
+++ b/01_Documentos/02_Mapa de Procesos 14 niveles/GESTOR DE ARCHIVOS 14 N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\2567_G7_ACSW\01_Documentos\02_Mapa de Procesos 14 niveles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325BDA8-DA64-4E98-B20B-B0BA635E673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2ADC14-799B-4581-80B3-D8290D607E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{05AC8D40-0673-44FF-B842-F2CFFFBC4894}"/>
   </bookViews>
@@ -3506,13 +3506,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>44065</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>51594</xdr:rowOff>
+      <xdr:rowOff>51595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>638934</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>81312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3530,8 +3530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7187815" y="15767844"/>
-          <a:ext cx="2849119" cy="4107656"/>
+          <a:off x="7280742" y="15407754"/>
+          <a:ext cx="2906424" cy="2167034"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4131,8 +4131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13044488" y="8509907"/>
-          <a:ext cx="1370239" cy="1148443"/>
+          <a:off x="12984666" y="8326377"/>
+          <a:ext cx="1356300" cy="1120564"/>
           <a:chOff x="9487958" y="3577167"/>
           <a:chExt cx="560510" cy="558839"/>
         </a:xfrm>
@@ -4488,8 +4488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11043323" y="8520796"/>
-          <a:ext cx="1372515" cy="1156604"/>
+          <a:off x="10996278" y="8337266"/>
+          <a:ext cx="1358576" cy="1128725"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -5319,8 +5319,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8435333" y="6018799"/>
-          <a:ext cx="618914" cy="2200217"/>
+          <a:off x="8399904" y="5895671"/>
+          <a:ext cx="620076" cy="2149107"/>
           <a:chOff x="8014017" y="5861995"/>
           <a:chExt cx="664996" cy="2741085"/>
         </a:xfrm>
@@ -5617,8 +5617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8920163" y="8553450"/>
-          <a:ext cx="1400175" cy="1143000"/>
+          <a:off x="8884734" y="8369920"/>
+          <a:ext cx="1387398" cy="1115121"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1246449"/>
         </a:xfrm>
@@ -6792,8 +6792,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15225712" y="8471807"/>
-          <a:ext cx="1364797" cy="1148443"/>
+          <a:off x="15148466" y="8292923"/>
+          <a:ext cx="1355504" cy="1115918"/>
           <a:chOff x="9487958" y="3577167"/>
           <a:chExt cx="560510" cy="558839"/>
         </a:xfrm>
@@ -7133,8 +7133,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21499966" y="8245928"/>
-          <a:ext cx="1345746" cy="1284514"/>
+          <a:off x="21375095" y="8071690"/>
+          <a:ext cx="1346908" cy="1251990"/>
           <a:chOff x="9487958" y="3510954"/>
           <a:chExt cx="560510" cy="625052"/>
         </a:xfrm>
@@ -7490,8 +7490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23413131" y="8347982"/>
-          <a:ext cx="1345746" cy="1148443"/>
+          <a:off x="23275483" y="8169098"/>
+          <a:ext cx="1346907" cy="1120565"/>
           <a:chOff x="9487958" y="3577167"/>
           <a:chExt cx="560510" cy="558839"/>
         </a:xfrm>
@@ -9218,8 +9218,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20815888" y="5960645"/>
-          <a:ext cx="672149" cy="2202724"/>
+          <a:off x="20704956" y="5842163"/>
+          <a:ext cx="658210" cy="2146968"/>
           <a:chOff x="8014017" y="5861995"/>
           <a:chExt cx="677391" cy="2741085"/>
         </a:xfrm>
@@ -10499,8 +10499,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>55517</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>27290</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10518,8 +10518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10253553" y="15738961"/>
-          <a:ext cx="2829233" cy="4114983"/>
+          <a:off x="10408670" y="15371543"/>
+          <a:ext cx="2888920" cy="2214859"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10565,9 +10565,6 @@
             </a:rPr>
             <a:t>Objetivos</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
           <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -10579,7 +10576,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10589,8 +10586,8 @@
             <a:t>Objetivo 1: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-EC"/>
-            <a:t>Establecer un procedimiento estandarizado y eficiente para la transferencia, control y entrega de documentación física en las unidades académicas y administrativas de la institución, asegurando la integridad, trazabilidad y entrega oportuna de los documentos a destinatarios internos y externos. Esto incluye la coordinación entre las sedes y centros de apoyo, así como el cumplimiento de los requisitos legales y administrativos aplicables.</a:t>
+            <a:rPr lang="es-ES"/>
+            <a:t>Asegurar el 100% de la recepción y registro eficiente de documentos jurídicos.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -10614,8 +10611,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>999034</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>15143</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>58079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10633,8 +10630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13260254" y="15726814"/>
-          <a:ext cx="2846895" cy="4114983"/>
+          <a:off x="13485066" y="15359396"/>
+          <a:ext cx="2881742" cy="2192159"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10844,8 +10841,8 @@
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>776460</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>180116</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10863,8 +10860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22403994" y="15701287"/>
-          <a:ext cx="2829735" cy="4114983"/>
+          <a:off x="22783028" y="15338515"/>
+          <a:ext cx="2874591" cy="2851912"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -11119,8 +11116,8 @@
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>270016</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>70184</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>23232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11138,8 +11135,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16346365" y="15742626"/>
-          <a:ext cx="2841766" cy="4916212"/>
+          <a:off x="16606024" y="15375208"/>
+          <a:ext cx="2911462" cy="3442475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -11314,16 +11311,14 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="es-EC" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Optimizar el proceso de recepción y entrega de documentos mediante una mejor capacitación del personal y el uso de herramientas de seguimiento, aplicando estos ajustes en todas las unidades académicas y administrativas, incluyendo sedes y centros de apoyo, con revisiones trimestrales para evaluar avances y realizar ajustes cuando sea necesario.</a:t>
+            <a:rPr lang="es-ES"/>
+            <a:t>Establecimiento de un protocolo de verificación más riguroso</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200"/>
+            <a:t>se implementará un protocolo detallado de verificación. Este protocolo incluirá una lista de chequeo estándar y asignación de responsables para realizar una revisión exhaustiva de cada documento recibido, garantizando que cumpla con los requisitos antes de su registro. La implementación comenzará de inmediato, con evaluaciones periódicas en el área encargada de la gestión documental para asegurar la efectividad del proceso.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -11473,14 +11468,14 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>487703</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>188726</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>34976</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>10132</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11498,8 +11493,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19405818" y="15721803"/>
-          <a:ext cx="2829735" cy="4114983"/>
+          <a:off x="19735173" y="15359032"/>
+          <a:ext cx="2869407" cy="2180908"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -11543,11 +11538,10 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Puntos Criticos </a:t>
+            <a:t>Gestión de Riesgo</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -11556,21 +11550,17 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>PC1: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1200" b="0" i="0" u="none" strike="noStrike">
+            <a:t>GR1: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-EC" sz="1200"/>
-            <a:t>ambios regulatorios que afectan el proceso incluye el incumplimiento de nuevas normativas, lo que podría interrumpir el flujo de trabajo, generar costos imprevistos para ajustar procedimientos, retrasar entregas debido a la adaptación a nuevas regulaciones, y afectar la eficiencia operativa.</a:t>
+            <a:t>Retraso en la entrega de documentos por parte de terceros, ya que puede afectar directamente el flujo de trabajo, generar demoras en el proceso y comprometer los plazos establecidos en el área jurídica.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -11617,7 +11607,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2249"/>
+                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2269"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11682,7 +11672,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2250"/>
+                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2270"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11747,7 +11737,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2251"/>
+                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2271"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11812,7 +11802,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2252"/>
+                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2272"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -12154,8 +12144,8 @@
   </sheetPr>
   <dimension ref="C12:AY95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="40" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV95" sqref="AV95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T61" zoomScale="82" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="AF99" sqref="AF99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12288,15 +12278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055B8FD45B5611248B918CED45CE64E3A" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3e73d4658fed8ea644250ba924fca3b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c13e63fa-8622-403c-b17c-fc7759c31d8c" xmlns:ns4="f9968226-41a9-4e16-a3b5-7b4f08e60939" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3dd83504369164dcd0b52cb314fe936" ns3:_="" ns4:_="">
     <xsd:import namespace="c13e63fa-8622-403c-b17c-fc7759c31d8c"/>
@@ -12491,6 +12472,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12500,14 +12490,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8F17B7-1194-404B-B4BE-AE81FE298C94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7651502-7A57-4B4F-8883-FE13D2237FC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12522,6 +12504,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8F17B7-1194-404B-B4BE-AE81FE298C94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
